--- a/circuits/net2.xlsx
+++ b/circuits/net2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harshil\Desktop\4thyear\python\final code\circuits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2147E4CD-B387-4E21-9C57-CAF0C072A39E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E741C6F-E089-4802-AD8A-46DAE80500D1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="914" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16755" yWindow="3105" windowWidth="28800" windowHeight="8130" tabRatio="914" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dtypes" sheetId="1" r:id="rId1"/>
@@ -54,6 +54,7 @@
     <sheet name="res_dcline" sheetId="39" r:id="rId39"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -10550,8 +10551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10947,10 +10948,10 @@
         <v>24</v>
       </c>
       <c r="D14">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>3.4871189999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -12359,7 +12360,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12854,7 +12855,7 @@
   <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="F69" sqref="A49:F69"/>
+      <selection activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14248,9 +14249,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G74" sqref="G74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15294,25 +15295,25 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C23" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D23">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E23">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F23">
-        <v>0.03</v>
+        <v>0.2</v>
       </c>
       <c r="G23">
-        <v>0.49170000000000003</v>
+        <v>0.26469999999999999</v>
       </c>
       <c r="H23">
-        <v>0.28470000000000001</v>
+        <v>8.2299999999999998E-2</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -15330,7 +15331,7 @@
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O23" t="b">
         <v>1</v>
@@ -15341,16 +15342,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C24" t="s">
         <v>336</v>
       </c>
       <c r="D24">
+        <v>26</v>
+      </c>
+      <c r="E24">
         <v>27</v>
-      </c>
-      <c r="E24">
-        <v>28</v>
       </c>
       <c r="F24">
         <v>0.03</v>
@@ -15388,16 +15389,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C25" t="s">
         <v>336</v>
       </c>
       <c r="D25">
+        <v>27</v>
+      </c>
+      <c r="E25">
         <v>28</v>
-      </c>
-      <c r="E25">
-        <v>29</v>
       </c>
       <c r="F25">
         <v>0.03</v>
@@ -15435,16 +15436,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C26" t="s">
         <v>336</v>
       </c>
       <c r="D26">
+        <v>28</v>
+      </c>
+      <c r="E26">
         <v>29</v>
-      </c>
-      <c r="E26">
-        <v>30</v>
       </c>
       <c r="F26">
         <v>0.03</v>
@@ -15482,16 +15483,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C27" t="s">
         <v>336</v>
       </c>
       <c r="D27">
+        <v>29</v>
+      </c>
+      <c r="E27">
         <v>30</v>
-      </c>
-      <c r="E27">
-        <v>31</v>
       </c>
       <c r="F27">
         <v>0.03</v>
@@ -15529,16 +15530,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C28" t="s">
         <v>336</v>
       </c>
       <c r="D28">
+        <v>30</v>
+      </c>
+      <c r="E28">
         <v>31</v>
-      </c>
-      <c r="E28">
-        <v>32</v>
       </c>
       <c r="F28">
         <v>0.03</v>
@@ -15576,16 +15577,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C29" t="s">
         <v>336</v>
       </c>
       <c r="D29">
+        <v>31</v>
+      </c>
+      <c r="E29">
         <v>32</v>
-      </c>
-      <c r="E29">
-        <v>33</v>
       </c>
       <c r="F29">
         <v>0.03</v>
@@ -15623,16 +15624,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C30" t="s">
         <v>336</v>
       </c>
       <c r="D30">
+        <v>32</v>
+      </c>
+      <c r="E30">
         <v>33</v>
-      </c>
-      <c r="E30">
-        <v>34</v>
       </c>
       <c r="F30">
         <v>0.03</v>
@@ -15670,16 +15671,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C31" t="s">
         <v>336</v>
       </c>
       <c r="D31">
+        <v>33</v>
+      </c>
+      <c r="E31">
         <v>34</v>
-      </c>
-      <c r="E31">
-        <v>35</v>
       </c>
       <c r="F31">
         <v>0.03</v>
@@ -15717,25 +15718,25 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C32" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D32">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E32">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F32">
         <v>0.03</v>
       </c>
       <c r="G32">
-        <v>1.3207</v>
+        <v>0.49170000000000003</v>
       </c>
       <c r="H32">
-        <v>0.32100000000000001</v>
+        <v>0.28470000000000001</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -15764,16 +15765,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C33" t="s">
         <v>337</v>
       </c>
       <c r="D33">
+        <v>29</v>
+      </c>
+      <c r="E33">
         <v>36</v>
-      </c>
-      <c r="E33">
-        <v>37</v>
       </c>
       <c r="F33">
         <v>0.03</v>
@@ -15811,25 +15812,25 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C34" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D34">
+        <v>36</v>
+      </c>
+      <c r="E34">
         <v>37</v>
-      </c>
-      <c r="E34">
-        <v>38</v>
       </c>
       <c r="F34">
         <v>0.03</v>
       </c>
       <c r="G34">
-        <v>2.0167000000000002</v>
+        <v>1.3207</v>
       </c>
       <c r="H34">
-        <v>0.33429999999999999</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -15858,7 +15859,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C35" t="s">
         <v>338</v>
@@ -15867,7 +15868,7 @@
         <v>37</v>
       </c>
       <c r="E35">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F35">
         <v>0.03</v>
@@ -15905,16 +15906,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C36" t="s">
         <v>338</v>
       </c>
       <c r="D36">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E36">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F36">
         <v>0.03</v>
@@ -15952,25 +15953,25 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C37" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D37">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E37">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F37">
         <v>0.03</v>
       </c>
       <c r="G37">
-        <v>1.3207</v>
+        <v>2.0167000000000002</v>
       </c>
       <c r="H37">
-        <v>0.32100000000000001</v>
+        <v>0.33429999999999999</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -15999,16 +16000,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C38" t="s">
         <v>337</v>
       </c>
       <c r="D38">
+        <v>31</v>
+      </c>
+      <c r="E38">
         <v>41</v>
-      </c>
-      <c r="E38">
-        <v>42</v>
       </c>
       <c r="F38">
         <v>0.03</v>
@@ -16046,25 +16047,25 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C39" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D39">
         <v>41</v>
       </c>
       <c r="E39">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F39">
         <v>0.03</v>
       </c>
       <c r="G39">
-        <v>2.0167000000000002</v>
+        <v>1.3207</v>
       </c>
       <c r="H39">
-        <v>0.33429999999999999</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -16093,16 +16094,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C40" t="s">
         <v>338</v>
       </c>
       <c r="D40">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E40">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F40">
         <v>0.03</v>
@@ -16140,16 +16141,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C41" t="s">
         <v>338</v>
       </c>
       <c r="D41">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E41">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41">
         <v>0.03</v>
@@ -16187,16 +16188,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C42" t="s">
         <v>338</v>
       </c>
       <c r="D42">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E42">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F42">
         <v>0.03</v>
@@ -16234,25 +16235,25 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C43" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="D43">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E43">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F43">
-        <v>3.5000000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="G43">
-        <v>0.16200000000000001</v>
+        <v>2.0167000000000002</v>
       </c>
       <c r="H43">
-        <v>8.3199999999999996E-2</v>
+        <v>0.33429999999999999</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -16270,7 +16271,7 @@
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O43" t="b">
         <v>1</v>
@@ -16281,16 +16282,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C44" t="s">
         <v>333</v>
       </c>
       <c r="D44">
+        <v>48</v>
+      </c>
+      <c r="E44">
         <v>49</v>
-      </c>
-      <c r="E44">
-        <v>50</v>
       </c>
       <c r="F44">
         <v>3.5000000000000003E-2</v>
@@ -16308,7 +16309,7 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L44">
         <v>1</v>
@@ -16328,16 +16329,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C45" t="s">
         <v>333</v>
       </c>
       <c r="D45">
+        <v>49</v>
+      </c>
+      <c r="E45">
         <v>50</v>
-      </c>
-      <c r="E45">
-        <v>51</v>
       </c>
       <c r="F45">
         <v>3.5000000000000003E-2</v>
@@ -16355,7 +16356,7 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L45">
         <v>1</v>
@@ -16375,16 +16376,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C46" t="s">
         <v>333</v>
       </c>
       <c r="D46">
+        <v>50</v>
+      </c>
+      <c r="E46">
         <v>51</v>
-      </c>
-      <c r="E46">
-        <v>52</v>
       </c>
       <c r="F46">
         <v>3.5000000000000003E-2</v>
@@ -16402,7 +16403,7 @@
         <v>0</v>
       </c>
       <c r="K46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L46">
         <v>1</v>
@@ -16422,16 +16423,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C47" t="s">
         <v>333</v>
       </c>
       <c r="D47">
+        <v>51</v>
+      </c>
+      <c r="E47">
         <v>52</v>
-      </c>
-      <c r="E47">
-        <v>53</v>
       </c>
       <c r="F47">
         <v>3.5000000000000003E-2</v>
@@ -16449,7 +16450,7 @@
         <v>0</v>
       </c>
       <c r="K47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L47">
         <v>1</v>
@@ -16469,16 +16470,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C48" t="s">
         <v>333</v>
       </c>
       <c r="D48">
+        <v>52</v>
+      </c>
+      <c r="E48">
         <v>53</v>
-      </c>
-      <c r="E48">
-        <v>54</v>
       </c>
       <c r="F48">
         <v>3.5000000000000003E-2</v>
@@ -16496,7 +16497,7 @@
         <v>0</v>
       </c>
       <c r="K48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L48">
         <v>1</v>
@@ -16516,16 +16517,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C49" t="s">
         <v>333</v>
       </c>
       <c r="D49">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E49">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F49">
         <v>3.5000000000000003E-2</v>
@@ -16543,7 +16544,7 @@
         <v>0</v>
       </c>
       <c r="K49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L49">
         <v>1</v>
@@ -16563,16 +16564,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C50" t="s">
         <v>333</v>
       </c>
       <c r="D50">
+        <v>49</v>
+      </c>
+      <c r="E50">
         <v>55</v>
-      </c>
-      <c r="E50">
-        <v>56</v>
       </c>
       <c r="F50">
         <v>3.5000000000000003E-2</v>
@@ -16590,7 +16591,7 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L50">
         <v>1</v>
@@ -16610,16 +16611,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C51" t="s">
         <v>333</v>
       </c>
       <c r="D51">
+        <v>55</v>
+      </c>
+      <c r="E51">
         <v>56</v>
-      </c>
-      <c r="E51">
-        <v>57</v>
       </c>
       <c r="F51">
         <v>3.5000000000000003E-2</v>
@@ -16637,7 +16638,7 @@
         <v>0</v>
       </c>
       <c r="K51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L51">
         <v>1</v>
@@ -16657,25 +16658,25 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C52" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D52">
+        <v>56</v>
+      </c>
+      <c r="E52">
         <v>57</v>
       </c>
-      <c r="E52">
-        <v>58</v>
-      </c>
       <c r="F52">
-        <v>0.03</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="G52">
-        <v>0.82199999999999995</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="H52">
-        <v>8.4699999999999998E-2</v>
+        <v>8.3199999999999996E-2</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -16684,7 +16685,7 @@
         <v>0</v>
       </c>
       <c r="K52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L52">
         <v>1</v>
@@ -16704,19 +16705,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C53" t="s">
         <v>334</v>
       </c>
       <c r="D53">
+        <v>57</v>
+      </c>
+      <c r="E53">
         <v>58</v>
       </c>
-      <c r="E53">
-        <v>59</v>
-      </c>
       <c r="F53">
-        <v>3.5000000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="G53">
         <v>0.82199999999999995</v>
@@ -16731,7 +16732,7 @@
         <v>0</v>
       </c>
       <c r="K53">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="L53">
         <v>1</v>
@@ -16751,16 +16752,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C54" t="s">
         <v>334</v>
       </c>
       <c r="D54">
+        <v>58</v>
+      </c>
+      <c r="E54">
         <v>59</v>
-      </c>
-      <c r="E54">
-        <v>60</v>
       </c>
       <c r="F54">
         <v>3.5000000000000003E-2</v>
@@ -16798,16 +16799,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C55" t="s">
         <v>334</v>
       </c>
       <c r="D55">
+        <v>59</v>
+      </c>
+      <c r="E55">
         <v>60</v>
-      </c>
-      <c r="E55">
-        <v>61</v>
       </c>
       <c r="F55">
         <v>3.5000000000000003E-2</v>
@@ -16845,19 +16846,19 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C56" t="s">
         <v>334</v>
       </c>
       <c r="D56">
+        <v>60</v>
+      </c>
+      <c r="E56">
         <v>61</v>
       </c>
-      <c r="E56">
-        <v>62</v>
-      </c>
       <c r="F56">
-        <v>0.03</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="G56">
         <v>0.82199999999999995</v>
@@ -16892,16 +16893,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C57" t="s">
         <v>334</v>
       </c>
       <c r="D57">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E57">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F57">
         <v>0.03</v>
@@ -16939,16 +16940,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C58" t="s">
         <v>334</v>
       </c>
       <c r="D58">
+        <v>59</v>
+      </c>
+      <c r="E58">
         <v>63</v>
-      </c>
-      <c r="E58">
-        <v>64</v>
       </c>
       <c r="F58">
         <v>0.03</v>
@@ -16986,16 +16987,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C59" t="s">
         <v>334</v>
       </c>
       <c r="D59">
+        <v>63</v>
+      </c>
+      <c r="E59">
         <v>64</v>
-      </c>
-      <c r="E59">
-        <v>65</v>
       </c>
       <c r="F59">
         <v>0.03</v>
@@ -17033,16 +17034,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C60" t="s">
         <v>334</v>
       </c>
       <c r="D60">
+        <v>64</v>
+      </c>
+      <c r="E60">
         <v>65</v>
-      </c>
-      <c r="E60">
-        <v>66</v>
       </c>
       <c r="F60">
         <v>0.03</v>
@@ -17080,16 +17081,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C61" t="s">
         <v>334</v>
       </c>
       <c r="D61">
+        <v>65</v>
+      </c>
+      <c r="E61">
         <v>66</v>
-      </c>
-      <c r="E61">
-        <v>67</v>
       </c>
       <c r="F61">
         <v>0.03</v>
@@ -17127,25 +17128,25 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
       <c r="C62" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D62">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="E62">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="F62">
-        <v>0.2</v>
+        <v>0.03</v>
       </c>
       <c r="G62">
-        <v>0.26469999999999999</v>
+        <v>0.82199999999999995</v>
       </c>
       <c r="H62">
-        <v>8.2299999999999998E-2</v>
+        <v>8.4699999999999998E-2</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -17320,7 +17321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>

--- a/circuits/net2.xlsx
+++ b/circuits/net2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harshil\Desktop\4thyear\python\final code\circuits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E741C6F-E089-4802-AD8A-46DAE80500D1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F875CDC-73EB-453B-B9FF-72B15BE87FEF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16755" yWindow="3105" windowWidth="28800" windowHeight="8130" tabRatio="914" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="914" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dtypes" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,6 @@
     <sheet name="res_dcline" sheetId="39" r:id="rId39"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -67,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2129" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2123" uniqueCount="437">
   <si>
     <t>element</t>
   </si>
@@ -666,9 +665,6 @@
     <t>2.0.1</t>
   </si>
   <si>
-    <t>Bus 0</t>
-  </si>
-  <si>
     <t>Bus R0</t>
   </si>
   <si>
@@ -1311,9 +1307,6 @@
     <t>11trafoside</t>
   </si>
   <si>
-    <t>11trafotoswitches</t>
-  </si>
-  <si>
     <t>SR</t>
   </si>
   <si>
@@ -1381,6 +1374,9 @@
   </si>
   <si>
     <t>CHP diesel 5c</t>
+  </si>
+  <si>
+    <t>Line I2-I3</t>
   </si>
 </sst>
 </file>
@@ -7238,7 +7234,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -8042,7 +8038,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>88</v>
@@ -8051,7 +8047,7 @@
         <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>86</v>
@@ -8065,7 +8061,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B2">
         <v>4.0299999999999997E-3</v>
@@ -8083,7 +8079,7 @@
         <v>0.64200000000000002</v>
       </c>
       <c r="G2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H2">
         <v>8.3000000000000004E-2</v>
@@ -8091,7 +8087,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B3">
         <v>4.0299999999999997E-3</v>
@@ -8109,7 +8105,7 @@
         <v>0.22500000000000001</v>
       </c>
       <c r="G3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H3">
         <v>0.08</v>
@@ -8117,7 +8113,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B4">
         <v>4.0299999999999997E-3</v>
@@ -8135,7 +8131,7 @@
         <v>0.20799999999999999</v>
       </c>
       <c r="G4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H4">
         <v>0.08</v>
@@ -8143,7 +8139,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B5">
         <v>4.0299999999999997E-3</v>
@@ -8161,7 +8157,7 @@
         <v>0.313</v>
       </c>
       <c r="G5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H5">
         <v>0.13200000000000001</v>
@@ -8169,7 +8165,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B6">
         <v>4.0299999999999997E-3</v>
@@ -8187,7 +8183,7 @@
         <v>0.161</v>
       </c>
       <c r="G6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H6">
         <v>0.11700000000000001</v>
@@ -8195,7 +8191,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B7">
         <v>4.0299999999999997E-3</v>
@@ -8213,7 +8209,7 @@
         <v>0.122</v>
       </c>
       <c r="G7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H7">
         <v>0.112</v>
@@ -8221,7 +8217,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B8">
         <v>4.0299999999999997E-3</v>
@@ -8239,7 +8235,7 @@
         <v>0.313</v>
       </c>
       <c r="G8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H8">
         <v>0.123</v>
@@ -8247,7 +8243,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B9">
         <v>4.0299999999999997E-3</v>
@@ -8265,7 +8261,7 @@
         <v>0.161</v>
       </c>
       <c r="G9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H9">
         <v>0.11</v>
@@ -8273,7 +8269,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B10">
         <v>4.0299999999999997E-3</v>
@@ -8291,7 +8287,7 @@
         <v>0.122</v>
       </c>
       <c r="G10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H10">
         <v>0.105</v>
@@ -8299,7 +8295,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B11">
         <v>4.0299999999999997E-3</v>
@@ -8317,7 +8313,7 @@
         <v>0.20599999999999999</v>
       </c>
       <c r="G11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H11">
         <v>0.11600000000000001</v>
@@ -8325,7 +8321,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B12">
         <v>4.0299999999999997E-3</v>
@@ -8343,7 +8339,7 @@
         <v>0.253</v>
       </c>
       <c r="G12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H12">
         <v>0.11899999999999999</v>
@@ -8351,7 +8347,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B13">
         <v>4.0299999999999997E-3</v>
@@ -8369,7 +8365,7 @@
         <v>0.443</v>
       </c>
       <c r="G13" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H13">
         <v>0.13200000000000001</v>
@@ -8377,7 +8373,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B14">
         <v>4.0299999999999997E-3</v>
@@ -8395,7 +8391,7 @@
         <v>0.20599999999999999</v>
       </c>
       <c r="G14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H14">
         <v>0.11</v>
@@ -8403,7 +8399,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B15">
         <v>4.0299999999999997E-3</v>
@@ -8421,7 +8417,7 @@
         <v>0.253</v>
       </c>
       <c r="G15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H15">
         <v>0.113</v>
@@ -8429,7 +8425,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B16">
         <v>4.0299999999999997E-3</v>
@@ -8447,7 +8443,7 @@
         <v>0.443</v>
       </c>
       <c r="G16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H16">
         <v>0.123</v>
@@ -8455,7 +8451,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B17">
         <v>3.9300000000000003E-3</v>
@@ -8473,7 +8469,7 @@
         <v>0.153</v>
       </c>
       <c r="G17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H17">
         <v>0.16600000000000001</v>
@@ -8481,7 +8477,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B18">
         <v>3.9300000000000003E-3</v>
@@ -8499,7 +8495,7 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="G18" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H18">
         <v>0.156</v>
@@ -8507,7 +8503,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B19">
         <v>3.9300000000000003E-3</v>
@@ -8525,7 +8521,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="G19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H19">
         <v>0.14899999999999999</v>
@@ -8533,7 +8529,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B20">
         <v>3.9300000000000003E-3</v>
@@ -8551,7 +8547,7 @@
         <v>0.06</v>
       </c>
       <c r="G20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H20">
         <v>0.14399999999999999</v>
@@ -8559,7 +8555,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B21">
         <v>4.0299999999999997E-3</v>
@@ -8577,7 +8573,7 @@
         <v>1.8769</v>
       </c>
       <c r="G21" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H21">
         <v>0.35</v>
@@ -8585,7 +8581,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B22">
         <v>4.0299999999999997E-3</v>
@@ -8603,7 +8599,7 @@
         <v>1.2012</v>
       </c>
       <c r="G22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H22">
         <v>0.33500000000000002</v>
@@ -8611,7 +8607,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B23">
         <v>4.0299999999999997E-3</v>
@@ -8629,7 +8625,7 @@
         <v>0.59389999999999998</v>
       </c>
       <c r="G23" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H23">
         <v>0.3</v>
@@ -8637,7 +8633,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B24">
         <v>4.0299999999999997E-3</v>
@@ -8655,7 +8651,7 @@
         <v>0.30599999999999999</v>
       </c>
       <c r="G24" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H24">
         <v>0.28999999999999998</v>
@@ -8663,7 +8659,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B25">
         <v>4.0299999999999997E-3</v>
@@ -8681,7 +8677,7 @@
         <v>0.83420000000000005</v>
       </c>
       <c r="G25" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H25">
         <v>0.36</v>
@@ -8689,7 +8685,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B26">
         <v>4.0299999999999997E-3</v>
@@ -8707,7 +8703,7 @@
         <v>0.59389999999999998</v>
       </c>
       <c r="G26" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H26">
         <v>0.35</v>
@@ -8715,7 +8711,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B27">
         <v>4.0299999999999997E-3</v>
@@ -8733,7 +8729,7 @@
         <v>0.41320000000000001</v>
       </c>
       <c r="G27" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H27">
         <v>0.33900000000000002</v>
@@ -8741,7 +8737,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B28">
         <v>4.0299999999999997E-3</v>
@@ -8759,7 +8755,7 @@
         <v>0.30599999999999999</v>
       </c>
       <c r="G28" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H28">
         <v>0.33</v>
@@ -8767,7 +8763,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B29">
         <v>4.0299999999999997E-3</v>
@@ -8785,7 +8781,7 @@
         <v>0.23760000000000001</v>
       </c>
       <c r="G29" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H29">
         <v>0.32300000000000001</v>
@@ -8793,7 +8789,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B30">
         <v>4.0299999999999997E-3</v>
@@ -8811,7 +8807,7 @@
         <v>0.19400000000000001</v>
       </c>
       <c r="G30" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H30">
         <v>0.315</v>
@@ -8819,7 +8815,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B31">
         <v>4.0299999999999997E-3</v>
@@ -8837,7 +8833,7 @@
         <v>0.83420000000000005</v>
       </c>
       <c r="G31" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H31">
         <v>0.38200000000000001</v>
@@ -8845,7 +8841,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B32">
         <v>4.0299999999999997E-3</v>
@@ -8863,7 +8859,7 @@
         <v>0.59389999999999998</v>
       </c>
       <c r="G32" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H32">
         <v>0.372</v>
@@ -8871,7 +8867,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B33">
         <v>4.0299999999999997E-3</v>
@@ -8889,7 +8885,7 @@
         <v>0.41320000000000001</v>
       </c>
       <c r="G33" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H33">
         <v>0.36</v>
@@ -8897,7 +8893,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B34">
         <v>4.0299999999999997E-3</v>
@@ -8915,7 +8911,7 @@
         <v>0.30599999999999999</v>
       </c>
       <c r="G34" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H34">
         <v>0.35</v>
@@ -8923,7 +8919,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B35">
         <v>4.0299999999999997E-3</v>
@@ -8941,7 +8937,7 @@
         <v>0.23760000000000001</v>
       </c>
       <c r="G35" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H35">
         <v>0.34399999999999997</v>
@@ -8949,7 +8945,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B36">
         <v>4.0299999999999997E-3</v>
@@ -8967,7 +8963,7 @@
         <v>0.19400000000000001</v>
       </c>
       <c r="G36" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H36">
         <v>0.33700000000000002</v>
@@ -8975,7 +8971,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B37">
         <v>4.0299999999999997E-3</v>
@@ -8993,7 +8989,7 @@
         <v>0.15709999999999999</v>
       </c>
       <c r="G37" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H37">
         <v>0.33</v>
@@ -9001,7 +8997,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B38">
         <v>4.0299999999999997E-3</v>
@@ -9019,7 +9015,7 @@
         <v>0.1188</v>
       </c>
       <c r="G38" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H38">
         <v>0.32</v>
@@ -9027,7 +9023,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B39">
         <v>4.0299999999999997E-3</v>
@@ -9045,7 +9041,7 @@
         <v>0.19400000000000001</v>
       </c>
       <c r="G39" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H39">
         <v>0.41</v>
@@ -9053,7 +9049,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B40">
         <v>4.0299999999999997E-3</v>
@@ -9071,7 +9067,7 @@
         <v>0.15709999999999999</v>
       </c>
       <c r="G40" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H40">
         <v>0.4</v>
@@ -9079,7 +9075,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B41">
         <v>4.0299999999999997E-3</v>
@@ -9097,7 +9093,7 @@
         <v>0.1188</v>
       </c>
       <c r="G41" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H41">
         <v>0.39</v>
@@ -9105,7 +9101,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B42">
         <v>4.0299999999999997E-3</v>
@@ -9123,7 +9119,7 @@
         <v>9.4899999999999998E-2</v>
       </c>
       <c r="G42" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H42">
         <v>0.38</v>
@@ -9131,7 +9127,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B43">
         <v>4.0299999999999997E-3</v>
@@ -9149,7 +9145,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="G43" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H43">
         <v>0.28499999999999998</v>
@@ -9157,7 +9153,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B44">
         <v>4.0299999999999997E-3</v>
@@ -9175,7 +9171,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="G44" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H44">
         <v>0.253</v>
@@ -9183,7 +9179,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -9195,7 +9191,7 @@
         <v>0.16200000000000001</v>
       </c>
       <c r="G45" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H45">
         <v>8.3199999999999996E-2</v>
@@ -9203,7 +9199,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -9215,7 +9211,7 @@
         <v>0.26469999999999999</v>
       </c>
       <c r="G46" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H46">
         <v>8.2299999999999998E-2</v>
@@ -9223,7 +9219,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -9235,7 +9231,7 @@
         <v>0.82199999999999995</v>
       </c>
       <c r="G47" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H47">
         <v>8.4699999999999998E-2</v>
@@ -9243,7 +9239,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -9255,7 +9251,7 @@
         <v>0.49170000000000003</v>
       </c>
       <c r="G48" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H48">
         <v>0.28470000000000001</v>
@@ -9263,7 +9259,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -9275,7 +9271,7 @@
         <v>1.3207</v>
       </c>
       <c r="G49" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H49">
         <v>0.32100000000000001</v>
@@ -9283,7 +9279,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -9295,7 +9291,7 @@
         <v>2.0167000000000002</v>
       </c>
       <c r="G50" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H50">
         <v>0.33429999999999999</v>
@@ -9349,7 +9345,7 @@
         <v>106</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>97</v>
@@ -9366,7 +9362,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B2">
         <v>0.06</v>
@@ -9393,7 +9389,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -9402,7 +9398,7 @@
         <v>1.5</v>
       </c>
       <c r="M2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="N2">
         <v>12.2</v>
@@ -9419,7 +9415,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B3">
         <v>0.06</v>
@@ -9446,7 +9442,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -9455,7 +9451,7 @@
         <v>1.5</v>
       </c>
       <c r="M3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="N3">
         <v>12</v>
@@ -9472,7 +9468,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B4">
         <v>0.04</v>
@@ -9499,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -9508,7 +9504,7 @@
         <v>1.5</v>
       </c>
       <c r="M4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="N4">
         <v>18</v>
@@ -9525,7 +9521,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B5">
         <v>0.05</v>
@@ -9552,7 +9548,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -9561,7 +9557,7 @@
         <v>1.5</v>
       </c>
       <c r="M5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="N5">
         <v>16.2</v>
@@ -9578,7 +9574,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B6">
         <v>7.0000000000000007E-2</v>
@@ -9605,7 +9601,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -9614,7 +9610,7 @@
         <v>1.5</v>
       </c>
       <c r="M6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="N6">
         <v>12</v>
@@ -9631,7 +9627,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B7">
         <v>0.04</v>
@@ -9658,7 +9654,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -9667,7 +9663,7 @@
         <v>1.5</v>
       </c>
       <c r="M7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="N7">
         <v>18</v>
@@ -9684,7 +9680,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B8">
         <v>0.05</v>
@@ -9711,7 +9707,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -9720,7 +9716,7 @@
         <v>1.5</v>
       </c>
       <c r="M8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="N8">
         <v>16.2</v>
@@ -9737,7 +9733,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B9">
         <v>7.0000000000000007E-2</v>
@@ -9764,7 +9760,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -9773,7 +9769,7 @@
         <v>1.5</v>
       </c>
       <c r="M9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="N9">
         <v>12</v>
@@ -9790,7 +9786,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B10">
         <v>0.32</v>
@@ -9817,7 +9813,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -9826,7 +9822,7 @@
         <v>2.5</v>
       </c>
       <c r="M10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="N10">
         <v>6</v>
@@ -9843,7 +9839,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B11">
         <v>0.33750000000000002</v>
@@ -9870,7 +9866,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -9879,7 +9875,7 @@
         <v>2.5</v>
       </c>
       <c r="M11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="N11">
         <v>6</v>
@@ -9896,7 +9892,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B12">
         <v>0.26190000000000002</v>
@@ -9923,7 +9919,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -9932,7 +9928,7 @@
         <v>2.5</v>
       </c>
       <c r="M12" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="N12">
         <v>6</v>
@@ -9949,7 +9945,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B13">
         <v>0.24</v>
@@ -9976,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -9985,7 +9981,7 @@
         <v>2.5</v>
       </c>
       <c r="M13" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="N13">
         <v>4</v>
@@ -10002,7 +9998,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B14">
         <v>0.23749999999999999</v>
@@ -10029,7 +10025,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -10038,7 +10034,7 @@
         <v>2.5</v>
       </c>
       <c r="M14" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="N14">
         <v>4</v>
@@ -10055,7 +10051,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B15">
         <v>0.18729999999999999</v>
@@ -10082,7 +10078,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -10091,7 +10087,7 @@
         <v>2.5</v>
       </c>
       <c r="M15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="N15">
         <v>4</v>
@@ -10157,7 +10153,7 @@
         <v>106</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>115</v>
@@ -10189,7 +10185,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B2">
         <v>0.89</v>
@@ -10222,13 +10218,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M2">
         <v>1.2</v>
       </c>
       <c r="N2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="O2">
         <v>10.4</v>
@@ -10260,7 +10256,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B3">
         <v>0.89</v>
@@ -10293,13 +10289,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M3">
         <v>1.2</v>
       </c>
       <c r="N3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="O3">
         <v>10.4</v>
@@ -10552,7 +10548,7 @@
   <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="J74" sqref="J74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10594,10 +10590,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C2" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>1.4250000000000001E-2</v>
@@ -10623,10 +10619,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C3" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>4.9399999999999999E-2</v>
@@ -10652,10 +10648,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C4" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <v>5.2249999999999998E-2</v>
@@ -10681,10 +10677,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C5" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>4.4650000000000002E-2</v>
@@ -10710,10 +10706,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C6" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6">
         <v>8.5000000000000006E-2</v>
@@ -10739,10 +10735,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C7" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7">
         <v>0.108</v>
@@ -10768,10 +10764,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C8" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8">
         <v>1.7999999999999999E-2</v>
@@ -10797,10 +10793,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C9" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9">
         <v>1.7999999999999999E-2</v>
@@ -10826,10 +10822,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C10" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10">
         <v>2.2499999999999999E-2</v>
@@ -10855,10 +10851,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C11" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11">
         <v>2.2499999999999999E-2</v>
@@ -10884,10 +10880,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C12" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12">
         <v>7.1999999999999998E-3</v>
@@ -10913,10 +10909,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C13" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13">
         <v>1.44E-2</v>
@@ -10942,10 +10938,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C14" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -10971,10 +10967,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C15" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -11000,10 +10996,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C16" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -11029,10 +11025,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C17" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -11058,10 +11054,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C18" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -11087,10 +11083,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C19" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -11116,10 +11112,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C20" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -11145,10 +11141,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C21" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -11174,10 +11170,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C22" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -11203,10 +11199,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C23" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -11232,10 +11228,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C24" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -11261,10 +11257,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C25" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -11290,10 +11286,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C26" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -11319,10 +11315,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C27" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -11348,10 +11344,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C28" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D28">
         <v>7.1999999999999998E-3</v>
@@ -11377,10 +11373,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C29" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D29">
         <v>7.1999999999999998E-3</v>
@@ -11406,10 +11402,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C30" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D30">
         <v>7.1999999999999998E-3</v>
@@ -11435,10 +11431,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C31" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D31">
         <v>7.1999999999999998E-3</v>
@@ -11464,10 +11460,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C32" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D32">
         <v>7.1999999999999998E-3</v>
@@ -11493,10 +11489,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C33" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D33">
         <v>7.1999999999999998E-3</v>
@@ -11522,10 +11518,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C34" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D34">
         <v>7.1999999999999998E-3</v>
@@ -11551,10 +11547,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C35" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D35">
         <v>7.1999999999999998E-3</v>
@@ -11580,10 +11576,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C36" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D36">
         <v>7.1999999999999998E-3</v>
@@ -11609,10 +11605,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C37" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D37">
         <v>7.1999999999999998E-3</v>
@@ -11638,10 +11634,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C38" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D38">
         <v>7.1999999999999998E-3</v>
@@ -11667,10 +11663,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C39" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D39">
         <v>7.1999999999999998E-3</v>
@@ -11696,10 +11692,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C40" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D40">
         <v>7.1999999999999998E-3</v>
@@ -11725,10 +11721,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C41" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D41">
         <v>7.1999999999999998E-3</v>
@@ -11754,10 +11750,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C42" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D42">
         <v>7.1999999999999998E-3</v>
@@ -11783,10 +11779,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C43" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D43">
         <v>7.1999999999999998E-3</v>
@@ -11812,10 +11808,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C44" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D44">
         <v>7.1999999999999998E-3</v>
@@ -12128,7 +12124,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12183,10 +12179,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2">
         <v>0.06</v>
@@ -12207,7 +12203,7 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -12215,10 +12211,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>0.04</v>
@@ -12239,7 +12235,7 @@
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="M3">
         <v>7.0000000000000007E-2</v>
@@ -12250,10 +12246,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>0.04</v>
@@ -12274,7 +12270,7 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="M4">
         <v>7.0000000000000007E-2</v>
@@ -12285,10 +12281,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5">
         <v>0.04</v>
@@ -12309,7 +12305,7 @@
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="M5">
         <v>7.0000000000000007E-2</v>
@@ -12320,10 +12316,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C6">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6">
         <v>0.04</v>
@@ -12344,7 +12340,7 @@
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="M6">
         <v>7.0000000000000007E-2</v>
@@ -12360,7 +12356,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="K2" sqref="K2:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12402,10 +12398,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>4.0000000000000001E-3</v>
@@ -12423,7 +12419,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
@@ -12434,10 +12430,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>4.0000000000000001E-3</v>
@@ -12455,7 +12451,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
@@ -12466,10 +12462,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>4.0000000000000001E-3</v>
@@ -12487,7 +12483,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J4" t="b">
         <v>1</v>
@@ -12498,10 +12494,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C5">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5">
         <v>4.0000000000000001E-3</v>
@@ -12519,7 +12515,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J5" t="b">
         <v>1</v>
@@ -12530,10 +12526,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6">
         <v>4.0000000000000001E-3</v>
@@ -12551,7 +12547,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J6" t="b">
         <v>1</v>
@@ -12562,10 +12558,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>4.0000000000000001E-3</v>
@@ -12583,7 +12579,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J7" t="b">
         <v>1</v>
@@ -12594,10 +12590,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8">
         <v>0.03</v>
@@ -12615,7 +12611,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J8" t="b">
         <v>1</v>
@@ -12626,10 +12622,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -12647,7 +12643,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J9" t="b">
         <v>1</v>
@@ -12658,10 +12654,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C10">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10">
         <v>4.0000000000000001E-3</v>
@@ -12679,7 +12675,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J10" t="b">
         <v>1</v>
@@ -12690,10 +12686,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D11">
         <v>4.0000000000000001E-3</v>
@@ -12711,7 +12707,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J11" t="b">
         <v>1</v>
@@ -12722,10 +12718,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C12">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12">
         <v>4.0000000000000001E-3</v>
@@ -12743,7 +12739,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J12" t="b">
         <v>1</v>
@@ -12754,10 +12750,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C13">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13">
         <v>0.03</v>
@@ -12775,7 +12771,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J13" t="b">
         <v>1</v>
@@ -12786,10 +12782,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C14">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -12807,7 +12803,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J14" t="b">
         <v>1</v>
@@ -12818,10 +12814,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C15">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -12839,7 +12835,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J15" t="b">
         <v>1</v>
@@ -12855,7 +12851,7 @@
   <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="J61" sqref="J61"/>
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12885,16 +12881,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C2">
         <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -12905,16 +12901,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C3">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -12931,10 +12927,10 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -12948,13 +12944,13 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>0.4</v>
       </c>
       <c r="D5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -12974,7 +12970,7 @@
         <v>266</v>
       </c>
       <c r="E6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
@@ -12991,10 +12987,10 @@
         <v>0.4</v>
       </c>
       <c r="D7" t="s">
+        <v>266</v>
+      </c>
+      <c r="E7" t="s">
         <v>267</v>
-      </c>
-      <c r="E7" t="s">
-        <v>268</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -13011,10 +13007,10 @@
         <v>0.4</v>
       </c>
       <c r="D8" t="s">
+        <v>266</v>
+      </c>
+      <c r="E8" t="s">
         <v>267</v>
-      </c>
-      <c r="E8" t="s">
-        <v>268</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -13031,10 +13027,10 @@
         <v>0.4</v>
       </c>
       <c r="D9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E9" t="s">
         <v>267</v>
-      </c>
-      <c r="E9" t="s">
-        <v>268</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
@@ -13051,10 +13047,10 @@
         <v>0.4</v>
       </c>
       <c r="D10" t="s">
+        <v>266</v>
+      </c>
+      <c r="E10" t="s">
         <v>267</v>
-      </c>
-      <c r="E10" t="s">
-        <v>268</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
@@ -13071,10 +13067,10 @@
         <v>0.4</v>
       </c>
       <c r="D11" t="s">
+        <v>266</v>
+      </c>
+      <c r="E11" t="s">
         <v>267</v>
-      </c>
-      <c r="E11" t="s">
-        <v>268</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
@@ -13091,10 +13087,10 @@
         <v>0.4</v>
       </c>
       <c r="D12" t="s">
+        <v>266</v>
+      </c>
+      <c r="E12" t="s">
         <v>267</v>
-      </c>
-      <c r="E12" t="s">
-        <v>268</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -13111,10 +13107,10 @@
         <v>0.4</v>
       </c>
       <c r="D13" t="s">
+        <v>266</v>
+      </c>
+      <c r="E13" t="s">
         <v>267</v>
-      </c>
-      <c r="E13" t="s">
-        <v>268</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
@@ -13131,10 +13127,10 @@
         <v>0.4</v>
       </c>
       <c r="D14" t="s">
+        <v>266</v>
+      </c>
+      <c r="E14" t="s">
         <v>267</v>
-      </c>
-      <c r="E14" t="s">
-        <v>268</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -13151,10 +13147,10 @@
         <v>0.4</v>
       </c>
       <c r="D15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E15" t="s">
         <v>267</v>
-      </c>
-      <c r="E15" t="s">
-        <v>268</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
@@ -13171,10 +13167,10 @@
         <v>0.4</v>
       </c>
       <c r="D16" t="s">
+        <v>266</v>
+      </c>
+      <c r="E16" t="s">
         <v>267</v>
-      </c>
-      <c r="E16" t="s">
-        <v>268</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
@@ -13191,10 +13187,10 @@
         <v>0.4</v>
       </c>
       <c r="D17" t="s">
+        <v>266</v>
+      </c>
+      <c r="E17" t="s">
         <v>267</v>
-      </c>
-      <c r="E17" t="s">
-        <v>268</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
@@ -13211,10 +13207,10 @@
         <v>0.4</v>
       </c>
       <c r="D18" t="s">
+        <v>266</v>
+      </c>
+      <c r="E18" t="s">
         <v>267</v>
-      </c>
-      <c r="E18" t="s">
-        <v>268</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
@@ -13231,10 +13227,10 @@
         <v>0.4</v>
       </c>
       <c r="D19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E19" t="s">
         <v>267</v>
-      </c>
-      <c r="E19" t="s">
-        <v>268</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
@@ -13251,10 +13247,10 @@
         <v>0.4</v>
       </c>
       <c r="D20" t="s">
+        <v>266</v>
+      </c>
+      <c r="E20" t="s">
         <v>267</v>
-      </c>
-      <c r="E20" t="s">
-        <v>268</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
@@ -13271,10 +13267,10 @@
         <v>0.4</v>
       </c>
       <c r="D21" t="s">
+        <v>266</v>
+      </c>
+      <c r="E21" t="s">
         <v>267</v>
-      </c>
-      <c r="E21" t="s">
-        <v>268</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
@@ -13291,10 +13287,10 @@
         <v>0.4</v>
       </c>
       <c r="D22" t="s">
+        <v>266</v>
+      </c>
+      <c r="E22" t="s">
         <v>267</v>
-      </c>
-      <c r="E22" t="s">
-        <v>268</v>
       </c>
       <c r="F22" t="b">
         <v>1</v>
@@ -13308,13 +13304,13 @@
         <v>218</v>
       </c>
       <c r="C23">
-        <v>0.4</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
+        <v>265</v>
+      </c>
+      <c r="E23" t="s">
         <v>267</v>
-      </c>
-      <c r="E23" t="s">
-        <v>268</v>
       </c>
       <c r="F23" t="b">
         <v>1</v>
@@ -13331,10 +13327,10 @@
         <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F24" t="b">
         <v>1</v>
@@ -13354,7 +13350,7 @@
         <v>266</v>
       </c>
       <c r="E25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F25" t="b">
         <v>1</v>
@@ -13371,10 +13367,10 @@
         <v>11</v>
       </c>
       <c r="D26" t="s">
+        <v>265</v>
+      </c>
+      <c r="E26" t="s">
         <v>267</v>
-      </c>
-      <c r="E26" t="s">
-        <v>268</v>
       </c>
       <c r="F26" t="b">
         <v>1</v>
@@ -13391,10 +13387,10 @@
         <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E27" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F27" t="b">
         <v>1</v>
@@ -13411,10 +13407,10 @@
         <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E28" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F28" t="b">
         <v>1</v>
@@ -13434,7 +13430,7 @@
         <v>266</v>
       </c>
       <c r="E29" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F29" t="b">
         <v>1</v>
@@ -13451,10 +13447,10 @@
         <v>11</v>
       </c>
       <c r="D30" t="s">
+        <v>266</v>
+      </c>
+      <c r="E30" t="s">
         <v>267</v>
-      </c>
-      <c r="E30" t="s">
-        <v>268</v>
       </c>
       <c r="F30" t="b">
         <v>1</v>
@@ -13471,10 +13467,10 @@
         <v>11</v>
       </c>
       <c r="D31" t="s">
+        <v>266</v>
+      </c>
+      <c r="E31" t="s">
         <v>267</v>
-      </c>
-      <c r="E31" t="s">
-        <v>268</v>
       </c>
       <c r="F31" t="b">
         <v>1</v>
@@ -13491,10 +13487,10 @@
         <v>11</v>
       </c>
       <c r="D32" t="s">
+        <v>266</v>
+      </c>
+      <c r="E32" t="s">
         <v>267</v>
-      </c>
-      <c r="E32" t="s">
-        <v>268</v>
       </c>
       <c r="F32" t="b">
         <v>1</v>
@@ -13511,10 +13507,10 @@
         <v>11</v>
       </c>
       <c r="D33" t="s">
+        <v>266</v>
+      </c>
+      <c r="E33" t="s">
         <v>267</v>
-      </c>
-      <c r="E33" t="s">
-        <v>268</v>
       </c>
       <c r="F33" t="b">
         <v>1</v>
@@ -13531,10 +13527,10 @@
         <v>11</v>
       </c>
       <c r="D34" t="s">
+        <v>266</v>
+      </c>
+      <c r="E34" t="s">
         <v>267</v>
-      </c>
-      <c r="E34" t="s">
-        <v>268</v>
       </c>
       <c r="F34" t="b">
         <v>1</v>
@@ -13551,10 +13547,10 @@
         <v>11</v>
       </c>
       <c r="D35" t="s">
+        <v>266</v>
+      </c>
+      <c r="E35" t="s">
         <v>267</v>
-      </c>
-      <c r="E35" t="s">
-        <v>268</v>
       </c>
       <c r="F35" t="b">
         <v>1</v>
@@ -13571,10 +13567,10 @@
         <v>11</v>
       </c>
       <c r="D36" t="s">
+        <v>266</v>
+      </c>
+      <c r="E36" t="s">
         <v>267</v>
-      </c>
-      <c r="E36" t="s">
-        <v>268</v>
       </c>
       <c r="F36" t="b">
         <v>1</v>
@@ -13591,10 +13587,10 @@
         <v>11</v>
       </c>
       <c r="D37" t="s">
+        <v>266</v>
+      </c>
+      <c r="E37" t="s">
         <v>267</v>
-      </c>
-      <c r="E37" t="s">
-        <v>268</v>
       </c>
       <c r="F37" t="b">
         <v>1</v>
@@ -13611,10 +13607,10 @@
         <v>11</v>
       </c>
       <c r="D38" t="s">
+        <v>266</v>
+      </c>
+      <c r="E38" t="s">
         <v>267</v>
-      </c>
-      <c r="E38" t="s">
-        <v>268</v>
       </c>
       <c r="F38" t="b">
         <v>1</v>
@@ -13631,10 +13627,10 @@
         <v>11</v>
       </c>
       <c r="D39" t="s">
+        <v>266</v>
+      </c>
+      <c r="E39" t="s">
         <v>267</v>
-      </c>
-      <c r="E39" t="s">
-        <v>268</v>
       </c>
       <c r="F39" t="b">
         <v>1</v>
@@ -13651,10 +13647,10 @@
         <v>11</v>
       </c>
       <c r="D40" t="s">
+        <v>266</v>
+      </c>
+      <c r="E40" t="s">
         <v>267</v>
-      </c>
-      <c r="E40" t="s">
-        <v>268</v>
       </c>
       <c r="F40" t="b">
         <v>1</v>
@@ -13671,10 +13667,10 @@
         <v>11</v>
       </c>
       <c r="D41" t="s">
+        <v>266</v>
+      </c>
+      <c r="E41" t="s">
         <v>267</v>
-      </c>
-      <c r="E41" t="s">
-        <v>268</v>
       </c>
       <c r="F41" t="b">
         <v>1</v>
@@ -13691,10 +13687,10 @@
         <v>11</v>
       </c>
       <c r="D42" t="s">
+        <v>266</v>
+      </c>
+      <c r="E42" t="s">
         <v>267</v>
-      </c>
-      <c r="E42" t="s">
-        <v>268</v>
       </c>
       <c r="F42" t="b">
         <v>1</v>
@@ -13711,10 +13707,10 @@
         <v>11</v>
       </c>
       <c r="D43" t="s">
+        <v>266</v>
+      </c>
+      <c r="E43" t="s">
         <v>267</v>
-      </c>
-      <c r="E43" t="s">
-        <v>268</v>
       </c>
       <c r="F43" t="b">
         <v>1</v>
@@ -13731,10 +13727,10 @@
         <v>11</v>
       </c>
       <c r="D44" t="s">
+        <v>266</v>
+      </c>
+      <c r="E44" t="s">
         <v>267</v>
-      </c>
-      <c r="E44" t="s">
-        <v>268</v>
       </c>
       <c r="F44" t="b">
         <v>1</v>
@@ -13751,10 +13747,10 @@
         <v>11</v>
       </c>
       <c r="D45" t="s">
+        <v>266</v>
+      </c>
+      <c r="E45" t="s">
         <v>267</v>
-      </c>
-      <c r="E45" t="s">
-        <v>268</v>
       </c>
       <c r="F45" t="b">
         <v>1</v>
@@ -13771,10 +13767,10 @@
         <v>11</v>
       </c>
       <c r="D46" t="s">
+        <v>266</v>
+      </c>
+      <c r="E46" t="s">
         <v>267</v>
-      </c>
-      <c r="E46" t="s">
-        <v>268</v>
       </c>
       <c r="F46" t="b">
         <v>1</v>
@@ -13791,10 +13787,10 @@
         <v>11</v>
       </c>
       <c r="D47" t="s">
+        <v>266</v>
+      </c>
+      <c r="E47" t="s">
         <v>267</v>
-      </c>
-      <c r="E47" t="s">
-        <v>268</v>
       </c>
       <c r="F47" t="b">
         <v>1</v>
@@ -13811,10 +13807,10 @@
         <v>11</v>
       </c>
       <c r="D48" t="s">
+        <v>265</v>
+      </c>
+      <c r="E48" t="s">
         <v>267</v>
-      </c>
-      <c r="E48" t="s">
-        <v>268</v>
       </c>
       <c r="F48" t="b">
         <v>1</v>
@@ -13828,13 +13824,13 @@
         <v>244</v>
       </c>
       <c r="C49">
-        <v>11</v>
+        <v>0.4</v>
       </c>
       <c r="D49" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E49" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F49" t="b">
         <v>1</v>
@@ -13854,7 +13850,7 @@
         <v>266</v>
       </c>
       <c r="E50" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F50" t="b">
         <v>1</v>
@@ -13871,10 +13867,10 @@
         <v>0.4</v>
       </c>
       <c r="D51" t="s">
+        <v>266</v>
+      </c>
+      <c r="E51" t="s">
         <v>267</v>
-      </c>
-      <c r="E51" t="s">
-        <v>268</v>
       </c>
       <c r="F51" t="b">
         <v>1</v>
@@ -13891,10 +13887,10 @@
         <v>0.4</v>
       </c>
       <c r="D52" t="s">
+        <v>266</v>
+      </c>
+      <c r="E52" t="s">
         <v>267</v>
-      </c>
-      <c r="E52" t="s">
-        <v>268</v>
       </c>
       <c r="F52" t="b">
         <v>1</v>
@@ -13911,10 +13907,10 @@
         <v>0.4</v>
       </c>
       <c r="D53" t="s">
+        <v>266</v>
+      </c>
+      <c r="E53" t="s">
         <v>267</v>
-      </c>
-      <c r="E53" t="s">
-        <v>268</v>
       </c>
       <c r="F53" t="b">
         <v>1</v>
@@ -13931,10 +13927,10 @@
         <v>0.4</v>
       </c>
       <c r="D54" t="s">
+        <v>266</v>
+      </c>
+      <c r="E54" t="s">
         <v>267</v>
-      </c>
-      <c r="E54" t="s">
-        <v>268</v>
       </c>
       <c r="F54" t="b">
         <v>1</v>
@@ -13951,10 +13947,10 @@
         <v>0.4</v>
       </c>
       <c r="D55" t="s">
+        <v>266</v>
+      </c>
+      <c r="E55" t="s">
         <v>267</v>
-      </c>
-      <c r="E55" t="s">
-        <v>268</v>
       </c>
       <c r="F55" t="b">
         <v>1</v>
@@ -13971,10 +13967,10 @@
         <v>0.4</v>
       </c>
       <c r="D56" t="s">
+        <v>266</v>
+      </c>
+      <c r="E56" t="s">
         <v>267</v>
-      </c>
-      <c r="E56" t="s">
-        <v>268</v>
       </c>
       <c r="F56" t="b">
         <v>1</v>
@@ -13991,10 +13987,10 @@
         <v>0.4</v>
       </c>
       <c r="D57" t="s">
+        <v>266</v>
+      </c>
+      <c r="E57" t="s">
         <v>267</v>
-      </c>
-      <c r="E57" t="s">
-        <v>268</v>
       </c>
       <c r="F57" t="b">
         <v>1</v>
@@ -14011,10 +14007,10 @@
         <v>0.4</v>
       </c>
       <c r="D58" t="s">
+        <v>266</v>
+      </c>
+      <c r="E58" t="s">
         <v>267</v>
-      </c>
-      <c r="E58" t="s">
-        <v>268</v>
       </c>
       <c r="F58" t="b">
         <v>1</v>
@@ -14031,10 +14027,10 @@
         <v>0.4</v>
       </c>
       <c r="D59" t="s">
+        <v>266</v>
+      </c>
+      <c r="E59" t="s">
         <v>267</v>
-      </c>
-      <c r="E59" t="s">
-        <v>268</v>
       </c>
       <c r="F59" t="b">
         <v>1</v>
@@ -14051,10 +14047,10 @@
         <v>0.4</v>
       </c>
       <c r="D60" t="s">
+        <v>266</v>
+      </c>
+      <c r="E60" t="s">
         <v>267</v>
-      </c>
-      <c r="E60" t="s">
-        <v>268</v>
       </c>
       <c r="F60" t="b">
         <v>1</v>
@@ -14071,10 +14067,10 @@
         <v>0.4</v>
       </c>
       <c r="D61" t="s">
+        <v>266</v>
+      </c>
+      <c r="E61" t="s">
         <v>267</v>
-      </c>
-      <c r="E61" t="s">
-        <v>268</v>
       </c>
       <c r="F61" t="b">
         <v>1</v>
@@ -14091,10 +14087,10 @@
         <v>0.4</v>
       </c>
       <c r="D62" t="s">
+        <v>266</v>
+      </c>
+      <c r="E62" t="s">
         <v>267</v>
-      </c>
-      <c r="E62" t="s">
-        <v>268</v>
       </c>
       <c r="F62" t="b">
         <v>1</v>
@@ -14111,10 +14107,10 @@
         <v>0.4</v>
       </c>
       <c r="D63" t="s">
+        <v>266</v>
+      </c>
+      <c r="E63" t="s">
         <v>267</v>
-      </c>
-      <c r="E63" t="s">
-        <v>268</v>
       </c>
       <c r="F63" t="b">
         <v>1</v>
@@ -14131,10 +14127,10 @@
         <v>0.4</v>
       </c>
       <c r="D64" t="s">
+        <v>266</v>
+      </c>
+      <c r="E64" t="s">
         <v>267</v>
-      </c>
-      <c r="E64" t="s">
-        <v>268</v>
       </c>
       <c r="F64" t="b">
         <v>1</v>
@@ -14151,10 +14147,10 @@
         <v>0.4</v>
       </c>
       <c r="D65" t="s">
+        <v>266</v>
+      </c>
+      <c r="E65" t="s">
         <v>267</v>
-      </c>
-      <c r="E65" t="s">
-        <v>268</v>
       </c>
       <c r="F65" t="b">
         <v>1</v>
@@ -14171,10 +14167,10 @@
         <v>0.4</v>
       </c>
       <c r="D66" t="s">
+        <v>266</v>
+      </c>
+      <c r="E66" t="s">
         <v>267</v>
-      </c>
-      <c r="E66" t="s">
-        <v>268</v>
       </c>
       <c r="F66" t="b">
         <v>1</v>
@@ -14191,10 +14187,10 @@
         <v>0.4</v>
       </c>
       <c r="D67" t="s">
+        <v>266</v>
+      </c>
+      <c r="E67" t="s">
         <v>267</v>
-      </c>
-      <c r="E67" t="s">
-        <v>268</v>
       </c>
       <c r="F67" t="b">
         <v>1</v>
@@ -14211,34 +14207,17 @@
         <v>0.4</v>
       </c>
       <c r="D68" t="s">
+        <v>266</v>
+      </c>
+      <c r="E68" t="s">
         <v>267</v>
       </c>
-      <c r="E68" t="s">
-        <v>268</v>
-      </c>
       <c r="F68" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
-        <v>67</v>
-      </c>
-      <c r="B69" t="s">
-        <v>264</v>
-      </c>
-      <c r="C69">
-        <v>0.4</v>
-      </c>
-      <c r="D69" t="s">
-        <v>267</v>
-      </c>
-      <c r="E69" t="s">
-        <v>268</v>
-      </c>
-      <c r="F69" t="b">
-        <v>1</v>
-      </c>
+      <c r="A69" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14250,8 +14229,8 @@
   <dimension ref="A1:O62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14308,25 +14287,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>414</v>
+        <v>273</v>
       </c>
       <c r="C2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>0.03</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="G2">
-        <v>0.82199999999999995</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="H2">
-        <v>8.4699999999999998E-2</v>
+        <v>8.3199999999999996E-2</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -14344,7 +14323,7 @@
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O2" t="b">
         <v>1</v>
@@ -14358,7 +14337,7 @@
         <v>274</v>
       </c>
       <c r="C3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D3">
         <v>4</v>
@@ -14391,7 +14370,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O3" t="b">
         <v>1</v>
@@ -14405,7 +14384,7 @@
         <v>275</v>
       </c>
       <c r="C4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -14438,7 +14417,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O4" t="b">
         <v>1</v>
@@ -14452,7 +14431,7 @@
         <v>276</v>
       </c>
       <c r="C5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -14485,7 +14464,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O5" t="b">
         <v>1</v>
@@ -14499,7 +14478,7 @@
         <v>277</v>
       </c>
       <c r="C6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D6">
         <v>7</v>
@@ -14532,7 +14511,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O6" t="b">
         <v>1</v>
@@ -14546,7 +14525,7 @@
         <v>278</v>
       </c>
       <c r="C7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D7">
         <v>8</v>
@@ -14579,7 +14558,7 @@
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O7" t="b">
         <v>1</v>
@@ -14593,7 +14572,7 @@
         <v>279</v>
       </c>
       <c r="C8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D8">
         <v>9</v>
@@ -14626,7 +14605,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O8" t="b">
         <v>1</v>
@@ -14640,7 +14619,7 @@
         <v>280</v>
       </c>
       <c r="C9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D9">
         <v>10</v>
@@ -14673,7 +14652,7 @@
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O9" t="b">
         <v>1</v>
@@ -14687,7 +14666,7 @@
         <v>281</v>
       </c>
       <c r="C10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D10">
         <v>11</v>
@@ -14720,7 +14699,7 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O10" t="b">
         <v>1</v>
@@ -14737,19 +14716,19 @@
         <v>333</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E11">
         <v>13</v>
       </c>
       <c r="F11">
-        <v>3.5000000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="G11">
-        <v>0.16200000000000001</v>
+        <v>0.82199999999999995</v>
       </c>
       <c r="H11">
-        <v>8.3199999999999996E-2</v>
+        <v>8.4699999999999998E-2</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -14767,7 +14746,7 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O11" t="b">
         <v>1</v>
@@ -14781,7 +14760,7 @@
         <v>283</v>
       </c>
       <c r="C12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D12">
         <v>6</v>
@@ -14790,7 +14769,7 @@
         <v>14</v>
       </c>
       <c r="F12">
-        <v>0.03</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="G12">
         <v>0.82199999999999995</v>
@@ -14814,7 +14793,7 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O12" t="b">
         <v>1</v>
@@ -14828,10 +14807,10 @@
         <v>284</v>
       </c>
       <c r="C13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <v>15</v>
@@ -14861,7 +14840,7 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O13" t="b">
         <v>1</v>
@@ -14875,7 +14854,7 @@
         <v>285</v>
       </c>
       <c r="C14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D14">
         <v>15</v>
@@ -14908,7 +14887,7 @@
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O14" t="b">
         <v>1</v>
@@ -14922,7 +14901,7 @@
         <v>286</v>
       </c>
       <c r="C15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D15">
         <v>16</v>
@@ -14931,7 +14910,7 @@
         <v>17</v>
       </c>
       <c r="F15">
-        <v>3.5000000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="G15">
         <v>0.82199999999999995</v>
@@ -14955,7 +14934,7 @@
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O15" t="b">
         <v>1</v>
@@ -14969,10 +14948,10 @@
         <v>287</v>
       </c>
       <c r="C16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D16">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E16">
         <v>18</v>
@@ -15002,7 +14981,7 @@
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O16" t="b">
         <v>1</v>
@@ -15016,10 +14995,10 @@
         <v>288</v>
       </c>
       <c r="C17" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D17">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E17">
         <v>19</v>
@@ -15049,7 +15028,7 @@
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O17" t="b">
         <v>1</v>
@@ -15063,7 +15042,7 @@
         <v>289</v>
       </c>
       <c r="C18" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D18">
         <v>12</v>
@@ -15096,7 +15075,7 @@
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O18" t="b">
         <v>1</v>
@@ -15113,19 +15092,19 @@
         <v>334</v>
       </c>
       <c r="D19">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E19">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F19">
-        <v>0.03</v>
+        <v>0.2</v>
       </c>
       <c r="G19">
-        <v>0.82199999999999995</v>
+        <v>0.26469999999999999</v>
       </c>
       <c r="H19">
-        <v>8.4699999999999998E-2</v>
+        <v>8.2299999999999998E-2</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -15143,7 +15122,7 @@
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O19" t="b">
         <v>1</v>
@@ -15157,7 +15136,7 @@
         <v>291</v>
       </c>
       <c r="C20" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D20">
         <v>22</v>
@@ -15190,7 +15169,7 @@
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O20" t="b">
         <v>1</v>
@@ -15204,10 +15183,10 @@
         <v>292</v>
       </c>
       <c r="C21" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D21">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E21">
         <v>24</v>
@@ -15237,7 +15216,7 @@
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O21" t="b">
         <v>1</v>
@@ -15248,16 +15227,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>293</v>
+        <v>436</v>
       </c>
       <c r="C22" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D22">
         <v>23</v>
       </c>
       <c r="E22">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F22">
         <v>0.2</v>
@@ -15284,7 +15263,7 @@
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O22" t="b">
         <v>1</v>
@@ -15301,19 +15280,19 @@
         <v>335</v>
       </c>
       <c r="D23">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E23">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F23">
-        <v>0.2</v>
+        <v>0.03</v>
       </c>
       <c r="G23">
-        <v>0.26469999999999999</v>
+        <v>0.49170000000000003</v>
       </c>
       <c r="H23">
-        <v>8.2299999999999998E-2</v>
+        <v>0.28470000000000001</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -15345,7 +15324,7 @@
         <v>294</v>
       </c>
       <c r="C24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D24">
         <v>26</v>
@@ -15378,7 +15357,7 @@
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O24" t="b">
         <v>1</v>
@@ -15392,7 +15371,7 @@
         <v>295</v>
       </c>
       <c r="C25" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D25">
         <v>27</v>
@@ -15425,7 +15404,7 @@
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O25" t="b">
         <v>1</v>
@@ -15439,7 +15418,7 @@
         <v>296</v>
       </c>
       <c r="C26" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D26">
         <v>28</v>
@@ -15472,7 +15451,7 @@
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O26" t="b">
         <v>1</v>
@@ -15486,7 +15465,7 @@
         <v>297</v>
       </c>
       <c r="C27" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D27">
         <v>29</v>
@@ -15519,7 +15498,7 @@
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O27" t="b">
         <v>1</v>
@@ -15533,7 +15512,7 @@
         <v>298</v>
       </c>
       <c r="C28" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D28">
         <v>30</v>
@@ -15566,7 +15545,7 @@
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O28" t="b">
         <v>1</v>
@@ -15580,7 +15559,7 @@
         <v>299</v>
       </c>
       <c r="C29" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D29">
         <v>31</v>
@@ -15613,7 +15592,7 @@
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O29" t="b">
         <v>1</v>
@@ -15627,7 +15606,7 @@
         <v>300</v>
       </c>
       <c r="C30" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D30">
         <v>32</v>
@@ -15660,7 +15639,7 @@
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O30" t="b">
         <v>1</v>
@@ -15674,7 +15653,7 @@
         <v>301</v>
       </c>
       <c r="C31" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D31">
         <v>33</v>
@@ -15707,7 +15686,7 @@
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O31" t="b">
         <v>1</v>
@@ -15724,7 +15703,7 @@
         <v>336</v>
       </c>
       <c r="D32">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E32">
         <v>35</v>
@@ -15733,10 +15712,10 @@
         <v>0.03</v>
       </c>
       <c r="G32">
-        <v>0.49170000000000003</v>
+        <v>1.3207</v>
       </c>
       <c r="H32">
-        <v>0.28470000000000001</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -15754,7 +15733,7 @@
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O32" t="b">
         <v>1</v>
@@ -15768,10 +15747,10 @@
         <v>303</v>
       </c>
       <c r="C33" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D33">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E33">
         <v>36</v>
@@ -15801,7 +15780,7 @@
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O33" t="b">
         <v>1</v>
@@ -15827,10 +15806,10 @@
         <v>0.03</v>
       </c>
       <c r="G34">
-        <v>1.3207</v>
+        <v>2.0167000000000002</v>
       </c>
       <c r="H34">
-        <v>0.32100000000000001</v>
+        <v>0.33429999999999999</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -15848,7 +15827,7 @@
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O34" t="b">
         <v>1</v>
@@ -15862,10 +15841,10 @@
         <v>305</v>
       </c>
       <c r="C35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D35">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E35">
         <v>38</v>
@@ -15895,7 +15874,7 @@
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O35" t="b">
         <v>1</v>
@@ -15909,10 +15888,10 @@
         <v>306</v>
       </c>
       <c r="C36" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D36">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E36">
         <v>39</v>
@@ -15942,7 +15921,7 @@
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O36" t="b">
         <v>1</v>
@@ -15956,10 +15935,10 @@
         <v>307</v>
       </c>
       <c r="C37" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D37">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E37">
         <v>40</v>
@@ -15968,10 +15947,10 @@
         <v>0.03</v>
       </c>
       <c r="G37">
-        <v>2.0167000000000002</v>
+        <v>1.3207</v>
       </c>
       <c r="H37">
-        <v>0.33429999999999999</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -15989,7 +15968,7 @@
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O37" t="b">
         <v>1</v>
@@ -16003,10 +15982,10 @@
         <v>308</v>
       </c>
       <c r="C38" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D38">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E38">
         <v>41</v>
@@ -16036,7 +16015,7 @@
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O38" t="b">
         <v>1</v>
@@ -16053,7 +16032,7 @@
         <v>337</v>
       </c>
       <c r="D39">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E39">
         <v>42</v>
@@ -16062,10 +16041,10 @@
         <v>0.03</v>
       </c>
       <c r="G39">
-        <v>1.3207</v>
+        <v>2.0167000000000002</v>
       </c>
       <c r="H39">
-        <v>0.32100000000000001</v>
+        <v>0.33429999999999999</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -16083,7 +16062,7 @@
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O39" t="b">
         <v>1</v>
@@ -16097,7 +16076,7 @@
         <v>310</v>
       </c>
       <c r="C40" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D40">
         <v>41</v>
@@ -16130,7 +16109,7 @@
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O40" t="b">
         <v>1</v>
@@ -16144,10 +16123,10 @@
         <v>311</v>
       </c>
       <c r="C41" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D41">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E41">
         <v>44</v>
@@ -16177,7 +16156,7 @@
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O41" t="b">
         <v>1</v>
@@ -16191,7 +16170,7 @@
         <v>312</v>
       </c>
       <c r="C42" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D42">
         <v>34</v>
@@ -16224,7 +16203,7 @@
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O42" t="b">
         <v>1</v>
@@ -16238,40 +16217,40 @@
         <v>313</v>
       </c>
       <c r="C43" t="s">
+        <v>332</v>
+      </c>
+      <c r="D43">
+        <v>47</v>
+      </c>
+      <c r="E43">
+        <v>48</v>
+      </c>
+      <c r="F43">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G43">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="H43">
+        <v>8.3199999999999996E-2</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>2</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
         <v>338</v>
-      </c>
-      <c r="D43">
-        <v>35</v>
-      </c>
-      <c r="E43">
-        <v>46</v>
-      </c>
-      <c r="F43">
-        <v>0.03</v>
-      </c>
-      <c r="G43">
-        <v>2.0167000000000002</v>
-      </c>
-      <c r="H43">
-        <v>0.33429999999999999</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>1</v>
-      </c>
-      <c r="L43">
-        <v>1</v>
-      </c>
-      <c r="M43">
-        <v>1</v>
-      </c>
-      <c r="N43" t="s">
-        <v>340</v>
       </c>
       <c r="O43" t="b">
         <v>1</v>
@@ -16285,7 +16264,7 @@
         <v>314</v>
       </c>
       <c r="C44" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D44">
         <v>48</v>
@@ -16318,7 +16297,7 @@
         <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O44" t="b">
         <v>1</v>
@@ -16332,7 +16311,7 @@
         <v>315</v>
       </c>
       <c r="C45" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D45">
         <v>49</v>
@@ -16365,7 +16344,7 @@
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O45" t="b">
         <v>1</v>
@@ -16379,7 +16358,7 @@
         <v>316</v>
       </c>
       <c r="C46" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D46">
         <v>50</v>
@@ -16412,7 +16391,7 @@
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O46" t="b">
         <v>1</v>
@@ -16426,7 +16405,7 @@
         <v>317</v>
       </c>
       <c r="C47" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D47">
         <v>51</v>
@@ -16459,7 +16438,7 @@
         <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O47" t="b">
         <v>1</v>
@@ -16473,7 +16452,7 @@
         <v>318</v>
       </c>
       <c r="C48" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D48">
         <v>52</v>
@@ -16506,7 +16485,7 @@
         <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O48" t="b">
         <v>1</v>
@@ -16520,10 +16499,10 @@
         <v>319</v>
       </c>
       <c r="C49" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D49">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E49">
         <v>54</v>
@@ -16553,7 +16532,7 @@
         <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O49" t="b">
         <v>1</v>
@@ -16567,10 +16546,10 @@
         <v>320</v>
       </c>
       <c r="C50" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D50">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E50">
         <v>55</v>
@@ -16600,7 +16579,7 @@
         <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O50" t="b">
         <v>1</v>
@@ -16614,7 +16593,7 @@
         <v>321</v>
       </c>
       <c r="C51" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D51">
         <v>55</v>
@@ -16647,7 +16626,7 @@
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O51" t="b">
         <v>1</v>
@@ -16670,13 +16649,13 @@
         <v>57</v>
       </c>
       <c r="F52">
-        <v>3.5000000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="G52">
-        <v>0.16200000000000001</v>
+        <v>0.82199999999999995</v>
       </c>
       <c r="H52">
-        <v>8.3199999999999996E-2</v>
+        <v>8.4699999999999998E-2</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -16685,7 +16664,7 @@
         <v>0</v>
       </c>
       <c r="K52">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L52">
         <v>1</v>
@@ -16694,7 +16673,7 @@
         <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O52" t="b">
         <v>1</v>
@@ -16708,7 +16687,7 @@
         <v>323</v>
       </c>
       <c r="C53" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D53">
         <v>57</v>
@@ -16717,7 +16696,7 @@
         <v>58</v>
       </c>
       <c r="F53">
-        <v>0.03</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="G53">
         <v>0.82199999999999995</v>
@@ -16732,7 +16711,7 @@
         <v>0</v>
       </c>
       <c r="K53">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="L53">
         <v>1</v>
@@ -16741,7 +16720,7 @@
         <v>1</v>
       </c>
       <c r="N53" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O53" t="b">
         <v>1</v>
@@ -16755,7 +16734,7 @@
         <v>324</v>
       </c>
       <c r="C54" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D54">
         <v>58</v>
@@ -16788,7 +16767,7 @@
         <v>1</v>
       </c>
       <c r="N54" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O54" t="b">
         <v>1</v>
@@ -16802,7 +16781,7 @@
         <v>325</v>
       </c>
       <c r="C55" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D55">
         <v>59</v>
@@ -16835,7 +16814,7 @@
         <v>1</v>
       </c>
       <c r="N55" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O55" t="b">
         <v>1</v>
@@ -16849,7 +16828,7 @@
         <v>326</v>
       </c>
       <c r="C56" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D56">
         <v>60</v>
@@ -16858,7 +16837,7 @@
         <v>61</v>
       </c>
       <c r="F56">
-        <v>3.5000000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="G56">
         <v>0.82199999999999995</v>
@@ -16882,7 +16861,7 @@
         <v>1</v>
       </c>
       <c r="N56" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O56" t="b">
         <v>1</v>
@@ -16896,10 +16875,10 @@
         <v>327</v>
       </c>
       <c r="C57" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D57">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E57">
         <v>62</v>
@@ -16929,7 +16908,7 @@
         <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O57" t="b">
         <v>1</v>
@@ -16943,10 +16922,10 @@
         <v>328</v>
       </c>
       <c r="C58" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D58">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E58">
         <v>63</v>
@@ -16976,7 +16955,7 @@
         <v>1</v>
       </c>
       <c r="N58" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O58" t="b">
         <v>1</v>
@@ -16990,7 +16969,7 @@
         <v>329</v>
       </c>
       <c r="C59" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D59">
         <v>63</v>
@@ -17023,7 +17002,7 @@
         <v>1</v>
       </c>
       <c r="N59" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O59" t="b">
         <v>1</v>
@@ -17037,7 +17016,7 @@
         <v>330</v>
       </c>
       <c r="C60" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D60">
         <v>64</v>
@@ -17070,7 +17049,7 @@
         <v>1</v>
       </c>
       <c r="N60" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O60" t="b">
         <v>1</v>
@@ -17084,7 +17063,7 @@
         <v>331</v>
       </c>
       <c r="C61" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D61">
         <v>65</v>
@@ -17117,58 +17096,14 @@
         <v>1</v>
       </c>
       <c r="N61" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O61" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
-        <v>60</v>
-      </c>
-      <c r="B62" t="s">
-        <v>332</v>
-      </c>
-      <c r="C62" t="s">
-        <v>334</v>
-      </c>
-      <c r="D62">
-        <v>66</v>
-      </c>
-      <c r="E62">
-        <v>67</v>
-      </c>
-      <c r="F62">
-        <v>0.03</v>
-      </c>
-      <c r="G62">
-        <v>0.82199999999999995</v>
-      </c>
-      <c r="H62">
-        <v>8.4699999999999998E-2</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>1</v>
-      </c>
-      <c r="L62">
-        <v>1</v>
-      </c>
-      <c r="M62">
-        <v>1</v>
-      </c>
-      <c r="N62" t="s">
-        <v>339</v>
-      </c>
-      <c r="O62" t="b">
-        <v>1</v>
-      </c>
+      <c r="A62" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17180,7 +17115,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17213,22 +17148,22 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>2</v>
       </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
       <c r="D2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -17239,22 +17174,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -17265,22 +17200,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -17291,22 +17226,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -17322,7 +17257,7 @@
   <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17406,13 +17341,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
         <v>3</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -17459,13 +17394,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D3">
+        <v>46</v>
+      </c>
+      <c r="E3">
         <v>47</v>
-      </c>
-      <c r="E3">
-        <v>48</v>
       </c>
       <c r="F3">
         <v>0.3</v>
@@ -17512,10 +17447,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -17548,7 +17483,7 @@
         <v>150</v>
       </c>
       <c r="N4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="O4">
         <v>0</v>
